--- a/MID/Alter-InstallLocation/LocInst.xlsx
+++ b/MID/Alter-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Alter-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3E247-F10F-4670-88A1-4E1AD5177A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19217D1-88BB-4DAB-BF0C-7AF8DDA5F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>4718301460</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>4718301303</v>
       </c>
       <c r="B5" s="1">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/MID/Alter-InstallLocation/LocInst.xlsx
+++ b/MID/Alter-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Alter-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19217D1-88BB-4DAB-BF0C-7AF8DDA5F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B61794-19F7-4B9F-96EA-13E29E2FE2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>4718301303</v>
       </c>
       <c r="B5" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +489,7 @@
         <v>4718301617</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>4718301814</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">

--- a/MID/Alter-InstallLocation/LocInst.xlsx
+++ b/MID/Alter-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Alter-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B61794-19F7-4B9F-96EA-13E29E2FE2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD3F6F-9EB5-4121-AC4D-527366176BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Norma</t>
   </si>
   <si>
     <t>Quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729108508 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4328700313 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729106784 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729107242 </t>
   </si>
 </sst>
 </file>
@@ -431,16 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D997F1F-30FE-4A2A-B694-A9178A4FC344}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,209 +464,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4718301460</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4718301610</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4728701091</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4718301303</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4718301617</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4718301615</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4718301818</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4718301756</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>4718301787</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4718301757</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4718301772</v>
-      </c>
-      <c r="B12" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>4718301804</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4728701146</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>4718301609</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4718301697</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>4728700997</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>4718301461</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>4718301814</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4718301815</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>4718301805</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>4718301819</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>4718301798</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>4718301758</v>
-      </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>4718301759</v>
-      </c>
-      <c r="B25" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/MID/Alter-InstallLocation/LocInst.xlsx
+++ b/MID/Alter-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Alter-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD3F6F-9EB5-4121-AC4D-527366176BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AF77F5-F86C-479B-A589-68B8BA2C9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
